--- a/biology/Biochimie/Tétrahydrométhanoptérine/Tétrahydrométhanoptérine.xlsx
+++ b/biology/Biochimie/Tétrahydrométhanoptérine/Tétrahydrométhanoptérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>T%C3%A9trahydrom%C3%A9thanopt%C3%A9rine</t>
+          <t>Tétrahydrométhanoptérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La tétrahydrométhanoptérine, abrégée en THMPT ou H4MPT, est une coenzyme intervenant dans la méthanogenèse chez les archées méthanogènes. C'est un activateur de groupe C1 réduit au niveau méthyle –CH3 avant transfert à la coenzyme M[2]. La tétrahydrosarcinaptérine, abrégée en THSPT ou H4SPT, est une forme modifiée de la THMPT dans laquelle un groupe glutamyle est lié au groupement terminal 2-hydroxyglutarique.
+La tétrahydrométhanoptérine, abrégée en THMPT ou H4MPT, est une coenzyme intervenant dans la méthanogenèse chez les archées méthanogènes. C'est un activateur de groupe C1 réduit au niveau méthyle –CH3 avant transfert à la coenzyme M. La tétrahydrosarcinaptérine, abrégée en THSPT ou H4SPT, est une forme modifiée de la THMPT dans laquelle un groupe glutamyle est lié au groupement terminal 2-hydroxyglutarique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>T%C3%A9trahydrom%C3%A9thanopt%C3%A9rine</t>
+          <t>Tétrahydrométhanoptérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Rôle dans la méthanogenèse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le N-formylméthanofurane transfère son groupe C1 au site N5 de la ptérine pour donner la formyl-THMPT[3]. Le groupe formyle se condense alors au sein de la molécule pour donner la méthényl-THMPT+, réduite ensuite en méthylène-THMPT[4] par une méthylènetétrahydrométhanoptérine déshydrogénase (EC 1.5.99.9).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le N-formylméthanofurane transfère son groupe C1 au site N5 de la ptérine pour donner la formyl-THMPT. Le groupe formyle se condense alors au sein de la molécule pour donner la méthényl-THMPT+, réduite ensuite en méthylène-THMPT par une méthylènetétrahydrométhanoptérine déshydrogénase (EC 1.5.99.9).
 La méthylène-THMPT est ensuite convertie en méthyl-THMPT par une méthylènetétrahydrométhanoptérine réductase (EC 1.5.99.11) avec la coenzyme F420 comme source d'électrons.
-La méthyl-THMPT transfère enfin son méthyle à la coenzyme M sous l'action de la tétrahydrométhanoptérine S-méthyltransférase[2] (EC 2.1.1.86).
+La méthyl-THMPT transfère enfin son méthyle à la coenzyme M sous l'action de la tétrahydrométhanoptérine S-méthyltransférase (EC 2.1.1.86).
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>T%C3%A9trahydrom%C3%A9thanopt%C3%A9rine</t>
+          <t>Tétrahydrométhanoptérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Comparaison avec l'acide tétrahydrofolique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La tétrahydrométhanoptérine est à rapprocher de l'acide tétrahydrofolique, abrégé en THFA ou H4FA dans la littérature anglophone, la principale différence étant la présence sur cette dernière molécule d'un groupe carbonyle C=O sur le cycle benzénique qui en facilite la réduction par rapport à la THMPT. Cette réduction est réalisée par une protéine fer-soufre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La tétrahydrométhanoptérine est à rapprocher de l'acide tétrahydrofolique, abrégé en THFA ou H4FA dans la littérature anglophone, la principale différence étant la présence sur cette dernière molécule d'un groupe carbonyle C=O sur le cycle benzénique qui en facilite la réduction par rapport à la THMPT. Cette réduction est réalisée par une protéine fer-soufre.
 </t>
         </is>
       </c>
